--- a/资产目前已开发功能文档.xlsx
+++ b/资产目前已开发功能文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,10 +215,6 @@
   </si>
   <si>
     <t>资产迁移搜索列表页面：https://xiamuqing.github.io/AssetProject/#/InvTransfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产列表页：https://xiamuqing.github.io/AssetProject/#/InvList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,6 +259,34 @@
   </si>
   <si>
     <t>发票搜索页面：https://xiamuqing.github.io/AssetProject/#/InvInvoiceSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新分行更新：https://xiamuqing.github.io/AssetProject/#/BranchChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新分行更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分行名，资产数量（15条）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产列表页：https://xiamuqing.github.io/AssetProject/#/InvList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产编号，复制次数，机身编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.15"/>
@@ -681,7 +705,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -762,7 +786,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -787,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -801,18 +825,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -868,7 +892,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -876,7 +900,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -981,89 +1005,140 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
